--- a/mapping/CAO_OBI.xlsx
+++ b/mapping/CAO_OBI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="270">
   <si>
     <t>CAO_IRI</t>
   </si>
@@ -28,6 +28,9 @@
     <t>OBI_DESC</t>
   </si>
   <si>
+    <t>OBI_DEF</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000030</t>
   </si>
   <si>
@@ -169,9 +172,21 @@
     <t>http://purl.obolibrary.org/obo/OBI_0200200</t>
   </si>
   <si>
+    <t>http://xmlns.com/foaf/0.1/Group</t>
+  </si>
+  <si>
     <t>http://xmlns.com/foaf/0.1/Organization</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0001019</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_33284</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_46787</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_50906</t>
   </si>
   <si>
@@ -190,18 +205,27 @@
     <t>http://champ-project.org/images/ontology/cao.owl#CAO_000053</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/CHMO_0002740</t>
+    <t>http://champ-project.org/images/ontology/cao.owl#CAO_000064</t>
+  </si>
+  <si>
+    <t>http://champ-project.org/images/ontology/cao.owl#CAO_000150</t>
   </si>
   <si>
     <t>http://champ-project.org/images/ontology/cao.owl#CAO_000180</t>
   </si>
   <si>
+    <t>http://champ-project.org/images/ontology/cao.owl#CAO_000189</t>
+  </si>
+  <si>
     <t>http://champ-project.org/images/ontology/cao.owl#CAO_000197</t>
   </si>
   <si>
     <t>http://champ-project.org/images/ontology/cao.owl#PATO_0000125</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ARG_2000379</t>
+  </si>
+  <si>
     <t>http://www.ifomis.org/bfo/1.1/snap#IndependentContinuant</t>
   </si>
   <si>
@@ -223,7 +247,13 @@
     <t>http://www.ifomis.org/bfo/1.1/snap#GenericallyDependentContinuant</t>
   </si>
   <si>
-    <t>http://vivoweb.org/ontology/core#PrincipalInvestigatorRole</t>
+    <t>http://purl.obolibrary.org/obo/PATO_0001652</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0001986</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/STATO_0000113</t>
   </si>
   <si>
     <t>http://www.ifomis.org/bfo/1.1/snap#Continuant</t>
@@ -388,7 +418,19 @@
     <t>{'iri': 'http://purl.obolibrary.org/obo/OBI_0200200'}</t>
   </si>
   <si>
-    <t>{'Organization'}</t>
+    <t>{'label': 'Group', 'prefLabel': None, 'altLabel': None, 'name': 'Group'}</t>
+  </si>
+  <si>
+    <t>{'label': None, 'prefLabel': None, 'altLabel': None, 'name': 'Organization'}</t>
+  </si>
+  <si>
+    <t>{'label': 'mass density (quality)', 'prefLabel': 'mass density (quality)', 'altLabel': 'density', 'name': 'PATO_0001019'}</t>
+  </si>
+  <si>
+    <t>{'label': 'nutrient', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_33284'}</t>
+  </si>
+  <si>
+    <t>{'label': 'solvent', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_46787'}</t>
   </si>
   <si>
     <t>{'label': 'Role', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_50906'}</t>
@@ -409,18 +451,27 @@
     <t>{'label': 'Control software name', 'prefLabel': None, 'altLabel': None, 'name': 'CAO_000053'}</t>
   </si>
   <si>
-    <t>{'label': 'Analyte role', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0002740'}</t>
+    <t>{'label': 'Analyte', 'prefLabel': None, 'altLabel': None, 'name': 'CAO_000064'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Materials', 'prefLabel': None, 'altLabel': None, 'name': 'CAO_000150'}</t>
   </si>
   <si>
     <t>{'label': 'Reagent', 'prefLabel': None, 'altLabel': None, 'name': 'CAO_000180'}</t>
   </si>
   <si>
+    <t>{'label': 'Sample', 'prefLabel': None, 'altLabel': None, 'name': 'CAO_000189'}</t>
+  </si>
+  <si>
     <t>{'label': 'Specimen', 'prefLabel': None, 'altLabel': None, 'name': 'CAO_000197'}</t>
   </si>
   <si>
     <t>{'label': 'Mass', 'prefLabel': None, 'altLabel': None, 'name': 'PATO_0000125'}</t>
   </si>
   <si>
+    <t>{'label': 'Contact', 'prefLabel': None, 'altLabel': None, 'name': 'ARG_2000379'}</t>
+  </si>
+  <si>
     <t>{'label': 'Independent Continuant', 'prefLabel': None, 'altLabel': None, 'name': 'IndependentContinuant'}</t>
   </si>
   <si>
@@ -442,7 +493,13 @@
     <t>{'label': 'Generically dependent continuant', 'prefLabel': None, 'altLabel': None, 'name': 'GenericallyDependentContinuant'}</t>
   </si>
   <si>
-    <t>{'label': 'Principal investigator role', 'prefLabel': None, 'altLabel': None, 'name': 'PrincipalInvestigatorRole'}</t>
+    <t>{'label': 'Alignment', 'prefLabel': None, 'altLabel': None, 'name': 'PATO_0001652'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Dissolved', 'prefLabel': None, 'altLabel': None, 'name': 'PATO_0001986'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Variance', 'prefLabel': None, 'altLabel': None, 'name': 'STATO_0000113'}</t>
   </si>
   <si>
     <t>{'label': 'Continuant', 'prefLabel': None, 'altLabel': None, 'name': 'Continuant'}</t>
@@ -466,9 +523,21 @@
     <t>{'label': 'Email address', 'prefLabel': None, 'altLabel': None, 'name': 'Email'}</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302900</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000245</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000079</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000204</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302732</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
   </si>
   <si>
@@ -481,12 +550,21 @@
     <t>http://purl.obolibrary.org/obo/OBI_0000275</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0100051</t>
+    <t>http://purl.obolibrary.org/obo/IAO_0000633</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001902</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000112</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/PATO_0000125</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001687</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
   </si>
   <si>
@@ -508,7 +586,13 @@
     <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000103</t>
+    <t>http://purl.obolibrary.org/obo/OBI_0002467</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302876</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200022</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
@@ -532,9 +616,21 @@
     <t>http://purl.obolibrary.org/obo/IAO_0000429</t>
   </si>
   <si>
+    <t>{'label': 'Group'}</t>
+  </si>
+  <si>
     <t>{'label': 'Organization'}</t>
   </si>
   <si>
+    <t>{'label': 'density'}</t>
+  </si>
+  <si>
+    <t>{'label': 'nutrient'}</t>
+  </si>
+  <si>
+    <t>{'label': 'solvent'}</t>
+  </si>
+  <si>
     <t>{'label': 'Role', 'prefLabel': 'Role'}</t>
   </si>
   <si>
@@ -553,18 +649,27 @@
     <t>{'label': 'Control software name'}</t>
   </si>
   <si>
-    <t>{'label': 'Analyte role'}</t>
+    <t>{'label': 'Analyte'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Materials'}</t>
   </si>
   <si>
     <t>{'altLabel': 'Reagent'}</t>
   </si>
   <si>
+    <t>{'label': 'Sample'}</t>
+  </si>
+  <si>
     <t>{'label': 'Specimen'}</t>
   </si>
   <si>
     <t>{'altLabel': 'Mass'}</t>
   </si>
   <si>
+    <t>{'label': 'Contact'}</t>
+  </si>
+  <si>
     <t>{'label': 'Independent Continuant', 'prefLabel': 'Independent Continuant'}</t>
   </si>
   <si>
@@ -586,7 +691,13 @@
     <t>{'label': 'Generically dependent continuant', 'prefLabel': 'Generically dependent continuant'}</t>
   </si>
   <si>
-    <t>{'label': 'Principal investigator role'}</t>
+    <t>{'label': 'Alignment'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Dissolved'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Variance'}</t>
   </si>
   <si>
     <t>{'label': 'Continuant', 'prefLabel': 'Continuant'}</t>
@@ -608,6 +719,111 @@
   </si>
   <si>
     <t>{'label': 'Email address', 'prefLabel': 'Email address'}</t>
+  </si>
+  <si>
+    <t>['A generically dependent continuant that is about some thing. [IAO]']</t>
+  </si>
+  <si>
+    <t>['B is a site means: b is a three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof. [BFO]']</t>
+  </si>
+  <si>
+    <t>['Any constitutionally or isotopically distinct atom, molecule, ion, ion pair, radical, radical ion, complex, conformer etc., identifiable as a separately distinguishable entity. [IUPAC]']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>["A 3-D extent quality inhering in a bearer by virtue of the bearer's amount of 3-dimensional space it occupies."]</t>
+  </si>
+  <si>
+    <t>["A physical quality that inheres in a bearer by virtue of the bearer's amount of force per unit area it exerts."]</t>
+  </si>
+  <si>
+    <t>['A physical quality of the thermal energy of a system. [PATO]']</t>
+  </si>
+  <si>
+    <t>['A 1-D extent quality which is equal to the distance between two points. [PATO]']</t>
+  </si>
+  <si>
+    <t>["Position is a  spatial quality inhering in a bearer by virtue of the bearer's spatial location relative to other objects in the vicinity. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A diagram that presents one or more tuples of information by mapping those tuples in to a two dimensional space in a non arbitrary way. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A serial number is an information content entity which is a unique sequence of characters borne by part of manufactured product or its packaging that is assigned to each individual in some class of products, and so can serve as a way to identify an individual product within the class. Serial numbers can be encoded in a variety of other information objects, such as bar codes, numerals, or patterns of dots. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A version number is an information content entity which is a sequence of characters borne by part of each of a class of manufactured products or its packaging and indicates its order within a set of other products having the same name. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A model number is an information content entity specifically borne by catalogs, design specifications, advertising materials, inventory systems and similar that is about manufactured objects of the same class. The model number is an alternative term for the class. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A collection of information content entities intended to be understood together as a whole [IAO]']</t>
+  </si>
+  <si>
+    <t>['A label is a symbol that is part of some other datum and is used to either partially define  the denotation of that datum or to provide a means for identifying the datum as a member of the set of data with the same label [IAO]']</t>
+  </si>
+  <si>
+    <t>['A role inhering in a biological or chemical entity that is intended to be applied in a scientific technique to participate (or have molecular components that participate) in a chemical reaction that facilitates the generation of data about some entity distinct from the bearer, or the generation of some specified material output distinct from the bearer. [OBI]']</t>
+  </si>
+  <si>
+    <t>['A directive information entity that describes an intended process endpoint. When part of a plan specification the concretization is realized in a planned process in which the bearer tries to effect the world so that the process endpoint is achieved. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A figure that expresses one or more propositions. [IAO]']</t>
+  </si>
+  <si>
+    <t>['An information content entity consisting of a two dimensional arrangement of information content entities such that the arrangement itself is about something. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.']</t>
+  </si>
+  <si>
+    <t>['A manufacturer is an organizational entity that has a manufacturer role. [Allotrope]']</t>
+  </si>
+  <si>
+    <t>['B is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to be and b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A quality is a specifically dependent continuant that, in contrast to roles and dispositions, does not require any further process in order to be realized. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A material entity is an independent continuant that has some portion of matter as proper or improper continuant part. [BFO]']</t>
+  </si>
+  <si>
+    <t>["A physical quality that inheres in a bearer by virtue of the proportion of the bearer's amount of matter. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['b is an independent continuant if b is a continuant which is such that there is no c and no t such that b s-depends_on c at t. [BFO]']</t>
+  </si>
+  <si>
+    <t>['To say that b is a realizable entity is to say that b is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region and is of a type instances of which are realized in processes of a correlated type.´[BFO]', 'To say that b is a realizable entity is to say that b is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region and is of a type instances of which are realized in processes of a correlated type. (axiom label in BFO2 Reference: [058-002])']</t>
+  </si>
+  <si>
+    <t>['b is a generically dependent continuant if b is a continuant that generically depends on one or more other entities. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A continuant is an entity that persists, endures, or continues to exist through time while maintaining its identity. [BFO]']</t>
+  </si>
+  <si>
+    <t>['An occurrent is an entity that unfolds itself in time or it is the instantaneous boundary of such an entity (for example a beginning or an ending) or it is a temporal or spatiotemporal region which such an entity occupies a temporal region or occupies a spatiotemporal region. [BFO]']</t>
+  </si>
+  <si>
+    <t>['b is a specifically dependent continuant if b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b specifically depends on c at every time t during the course of b’s existence. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A spatial region is a continuant entity that is a continuant part of space R as defined relative to some frame R. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A spatiotemporal region is an occurrent entity that is part of spacetime. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A temporal region is an occurrent entity that is part of time as defined relative to some reference frame. [BFO]']</t>
+  </si>
+  <si>
+    <t>['An email address identifies an email box to which email messages are delivered. [Wikipedia]']</t>
   </si>
 </sst>
 </file>
@@ -978,13 +1194,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,1246 +1213,1648 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>97</v>
+      </c>
+      <c r="F12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>98</v>
+      </c>
+      <c r="F13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>102</v>
+      </c>
+      <c r="F17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>106</v>
+      </c>
+      <c r="F21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>108</v>
+      </c>
+      <c r="F23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>109</v>
+      </c>
+      <c r="F24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>110</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>111</v>
+      </c>
+      <c r="F26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>112</v>
+      </c>
+      <c r="F27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>113</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>114</v>
+      </c>
+      <c r="F29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>116</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>117</v>
+      </c>
+      <c r="F32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>119</v>
+      </c>
+      <c r="F34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>123</v>
+      </c>
+      <c r="F38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="F40" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>126</v>
+      </c>
+      <c r="F41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>127</v>
+      </c>
+      <c r="F42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>128</v>
+      </c>
+      <c r="F43" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>129</v>
+      </c>
+      <c r="F44" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>130</v>
+      </c>
+      <c r="F45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>131</v>
+      </c>
+      <c r="F46" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>132</v>
+      </c>
+      <c r="F47" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>133</v>
+      </c>
+      <c r="F48" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E49" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>200</v>
+      </c>
+      <c r="F49" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>201</v>
+      </c>
+      <c r="F50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>202</v>
+      </c>
+      <c r="F51" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="E52" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>203</v>
+      </c>
+      <c r="F52" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="E53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>204</v>
+      </c>
+      <c r="F53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="E54" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>205</v>
+      </c>
+      <c r="F54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="E55" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F55" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E56" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>207</v>
+      </c>
+      <c r="F56" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>208</v>
+      </c>
+      <c r="F57" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>209</v>
+      </c>
+      <c r="F58" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="E59" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>210</v>
+      </c>
+      <c r="F59" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="E60" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>211</v>
+      </c>
+      <c r="F60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="E61" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>212</v>
+      </c>
+      <c r="F61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>213</v>
+      </c>
+      <c r="F62" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>214</v>
+      </c>
+      <c r="F63" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>215</v>
+      </c>
+      <c r="F64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="E65" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>216</v>
+      </c>
+      <c r="F65" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E66" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>217</v>
+      </c>
+      <c r="F66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="E67" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>218</v>
+      </c>
+      <c r="F67" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E68" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>219</v>
+      </c>
+      <c r="F68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E69" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>220</v>
+      </c>
+      <c r="F69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="E70" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>221</v>
+      </c>
+      <c r="F70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E71" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>222</v>
+      </c>
+      <c r="F71" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="E72" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>223</v>
+      </c>
+      <c r="F72" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="E73" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>224</v>
+      </c>
+      <c r="F73" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" t="s">
+        <v>225</v>
+      </c>
+      <c r="F74" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75" t="s">
+        <v>226</v>
+      </c>
+      <c r="F75" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" t="s">
+        <v>227</v>
+      </c>
+      <c r="F76" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" t="s">
+        <v>228</v>
+      </c>
+      <c r="F77" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="C74" t="s">
-        <v>149</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="B78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" t="s">
+        <v>229</v>
+      </c>
+      <c r="F78" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E79" t="s">
+        <v>230</v>
+      </c>
+      <c r="F79" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E80" t="s">
+        <v>231</v>
+      </c>
+      <c r="F80" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>197</v>
+      </c>
+      <c r="E81" t="s">
+        <v>232</v>
+      </c>
+      <c r="F81" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E82" t="s">
+        <v>233</v>
+      </c>
+      <c r="F82" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
+        <v>168</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" t="s">
+        <v>234</v>
+      </c>
+      <c r="F83" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2339,54 +2957,72 @@
     <hyperlink ref="D49" r:id="rId96"/>
     <hyperlink ref="B50" r:id="rId97"/>
     <hyperlink ref="D50" r:id="rId98"/>
-    <hyperlink ref="B51" r:id="rId99" location="Quality"/>
+    <hyperlink ref="B51" r:id="rId99"/>
     <hyperlink ref="D51" r:id="rId100"/>
-    <hyperlink ref="B52" r:id="rId101" location="MaterialEntity"/>
+    <hyperlink ref="B52" r:id="rId101"/>
     <hyperlink ref="D52" r:id="rId102"/>
-    <hyperlink ref="B53" r:id="rId103" location="CAO_000051"/>
+    <hyperlink ref="B53" r:id="rId103"/>
     <hyperlink ref="D53" r:id="rId104"/>
-    <hyperlink ref="B54" r:id="rId105" location="CAO_000052"/>
+    <hyperlink ref="B54" r:id="rId105"/>
     <hyperlink ref="D54" r:id="rId106"/>
-    <hyperlink ref="B55" r:id="rId107" location="CAO_000053"/>
+    <hyperlink ref="B55" r:id="rId107" location="Quality"/>
     <hyperlink ref="D55" r:id="rId108"/>
-    <hyperlink ref="B56" r:id="rId109"/>
+    <hyperlink ref="B56" r:id="rId109" location="MaterialEntity"/>
     <hyperlink ref="D56" r:id="rId110"/>
-    <hyperlink ref="B57" r:id="rId111" location="CAO_000180"/>
+    <hyperlink ref="B57" r:id="rId111" location="CAO_000051"/>
     <hyperlink ref="D57" r:id="rId112"/>
-    <hyperlink ref="B58" r:id="rId113" location="CAO_000197"/>
+    <hyperlink ref="B58" r:id="rId113" location="CAO_000052"/>
     <hyperlink ref="D58" r:id="rId114"/>
-    <hyperlink ref="B59" r:id="rId115" location="PATO_0000125"/>
+    <hyperlink ref="B59" r:id="rId115" location="CAO_000053"/>
     <hyperlink ref="D59" r:id="rId116"/>
-    <hyperlink ref="B60" r:id="rId117" location="IndependentContinuant"/>
+    <hyperlink ref="B60" r:id="rId117" location="CAO_000064"/>
     <hyperlink ref="D60" r:id="rId118"/>
-    <hyperlink ref="B61" r:id="rId119"/>
+    <hyperlink ref="B61" r:id="rId119" location="CAO_000150"/>
     <hyperlink ref="D61" r:id="rId120"/>
-    <hyperlink ref="B62" r:id="rId121" location="RealizableEntity"/>
+    <hyperlink ref="B62" r:id="rId121" location="CAO_000180"/>
     <hyperlink ref="D62" r:id="rId122"/>
-    <hyperlink ref="B63" r:id="rId123"/>
+    <hyperlink ref="B63" r:id="rId123" location="CAO_000189"/>
     <hyperlink ref="D63" r:id="rId124"/>
-    <hyperlink ref="B64" r:id="rId125"/>
+    <hyperlink ref="B64" r:id="rId125" location="CAO_000197"/>
     <hyperlink ref="D64" r:id="rId126"/>
-    <hyperlink ref="B65" r:id="rId127"/>
+    <hyperlink ref="B65" r:id="rId127" location="PATO_0000125"/>
     <hyperlink ref="D65" r:id="rId128"/>
-    <hyperlink ref="B66" r:id="rId129" location="GenericallyDependentContinuant"/>
+    <hyperlink ref="B66" r:id="rId129"/>
     <hyperlink ref="D66" r:id="rId130"/>
-    <hyperlink ref="B67" r:id="rId131" location="PrincipalInvestigatorRole"/>
+    <hyperlink ref="B67" r:id="rId131" location="IndependentContinuant"/>
     <hyperlink ref="D67" r:id="rId132"/>
-    <hyperlink ref="B68" r:id="rId133" location="Continuant"/>
+    <hyperlink ref="B68" r:id="rId133"/>
     <hyperlink ref="D68" r:id="rId134"/>
-    <hyperlink ref="B69" r:id="rId135" location="Occurrent"/>
+    <hyperlink ref="B69" r:id="rId135" location="RealizableEntity"/>
     <hyperlink ref="D69" r:id="rId136"/>
-    <hyperlink ref="B70" r:id="rId137" location="SpecificallyDependentContinuant"/>
+    <hyperlink ref="B70" r:id="rId137"/>
     <hyperlink ref="D70" r:id="rId138"/>
-    <hyperlink ref="B71" r:id="rId139" location="SpatialRegion"/>
+    <hyperlink ref="B71" r:id="rId139"/>
     <hyperlink ref="D71" r:id="rId140"/>
-    <hyperlink ref="B72" r:id="rId141" location="SpatiotemporalRegion"/>
+    <hyperlink ref="B72" r:id="rId141"/>
     <hyperlink ref="D72" r:id="rId142"/>
-    <hyperlink ref="B73" r:id="rId143" location="TemporalRegion"/>
+    <hyperlink ref="B73" r:id="rId143" location="GenericallyDependentContinuant"/>
     <hyperlink ref="D73" r:id="rId144"/>
-    <hyperlink ref="B74" r:id="rId145" location="Email"/>
+    <hyperlink ref="B74" r:id="rId145"/>
     <hyperlink ref="D74" r:id="rId146"/>
+    <hyperlink ref="B75" r:id="rId147"/>
+    <hyperlink ref="D75" r:id="rId148"/>
+    <hyperlink ref="B76" r:id="rId149"/>
+    <hyperlink ref="D76" r:id="rId150"/>
+    <hyperlink ref="B77" r:id="rId151" location="Continuant"/>
+    <hyperlink ref="D77" r:id="rId152"/>
+    <hyperlink ref="B78" r:id="rId153" location="Occurrent"/>
+    <hyperlink ref="D78" r:id="rId154"/>
+    <hyperlink ref="B79" r:id="rId155" location="SpecificallyDependentContinuant"/>
+    <hyperlink ref="D79" r:id="rId156"/>
+    <hyperlink ref="B80" r:id="rId157" location="SpatialRegion"/>
+    <hyperlink ref="D80" r:id="rId158"/>
+    <hyperlink ref="B81" r:id="rId159" location="SpatiotemporalRegion"/>
+    <hyperlink ref="D81" r:id="rId160"/>
+    <hyperlink ref="B82" r:id="rId161" location="TemporalRegion"/>
+    <hyperlink ref="D82" r:id="rId162"/>
+    <hyperlink ref="B83" r:id="rId163" location="Email"/>
+    <hyperlink ref="D83" r:id="rId164"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
